--- a/medicine/Enfance/Julia_Donaldson/Julia_Donaldson.xlsx
+++ b/medicine/Enfance/Julia_Donaldson/Julia_Donaldson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Donaldson (née le 16 septembre 1948 à Londres) est une autrice britannique de littérature de jeunesse.
 Elle est notamment connue pour avoir créé Le Gruffalo. Ses récits sont généralement illustrés par Axel Scheffler.
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études de théâtre et de français, Julia Donaldson a travaillé quelques années dans l'édition et l'enseignement. Elle écrit aussi des chansons pour la télévision dont l'une donnera lieu à son premier livre jeunesse publié en 1993, A Squash and a Squeeze[1],[2]. L'ouvrage est traduit en français sous le titre La ferme riquiqui[3].
-En 2011, elle occupe la position de Children's Laureate et est faite membre de l'ordre de l'Empire britannique (MBE)[4]. 
-En 2020, l'auteure vit à Steyning en compagnie de son mari Malcolm, pédiatre en retraite[5].
-En 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études de théâtre et de français, Julia Donaldson a travaillé quelques années dans l'édition et l'enseignement. Elle écrit aussi des chansons pour la télévision dont l'une donnera lieu à son premier livre jeunesse publié en 1993, A Squash and a Squeeze,. L'ouvrage est traduit en français sous le titre La ferme riquiqui.
+En 2011, elle occupe la position de Children's Laureate et est faite membre de l'ordre de l'Empire britannique (MBE). 
+En 2020, l'auteure vit à Steyning en compagnie de son mari Malcolm, pédiatre en retraite.
+En 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'auteure a publié de nombreux livres pour enfants, parmi lesquels :
 Le Gruffalo (The Gruffalo)
@@ -587,9 +603,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
@@ -617,7 +635,9 @@
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 La société Magic Light Pictures (en) a produit ou coproduit plusieurs courts métrages d'animation adaptés de son œuvre et Julia Donaldson a coécrit l'adaptation des premiers :
